--- a/03_Auswertung/Auswertung_Daten_Roundtrip.xlsx
+++ b/03_Auswertung/Auswertung_Daten_Roundtrip.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkabw-my.sharepoint.com/personal/andreas_schmitt_hka_bwedu_de/Documents/HS Karlsruhe/1. Semester/Roboterprogrammierung/Projekt/Git/RKIM23RobotProgramDS/03_Auswertung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_522499BC87B549235AAFE195C1F456CF54983153" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DB7E66-DFBF-438B-A7DC-CCC9934B9FD4}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_522499BC87B549235AAFE195C1F456CF54983153" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D8AAE4A-6D0E-40B9-A250-9702F2184810}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="800" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung Zeit" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertung Nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="Auswertung Erfolgreich" sheetId="3" r:id="rId3"/>
+    <sheet name="Auswertung Erfolgsrate" sheetId="3" r:id="rId3"/>
     <sheet name="Auswertung Pfadlänge" sheetId="8" r:id="rId4"/>
     <sheet name="Daten" sheetId="4" r:id="rId5"/>
     <sheet name="Daten Pfadlänge" sheetId="5" r:id="rId6"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -249,7 +249,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,7 +259,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Pivot Table Category" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
@@ -1850,7 +1849,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$B$1</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1908,7 +1907,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$A$2:$A$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1934,7 +1933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Auswertung Erfolgreich'!$B$2:$B$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1970,7 +1969,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$C$1</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2028,7 +2027,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$A$2:$A$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2054,7 +2053,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Auswertung Erfolgreich'!$C$2:$C$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2090,7 +2089,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$D$1</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2148,7 +2147,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$A$2:$A$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2174,7 +2173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Auswertung Erfolgreich'!$D$2:$D$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2210,7 +2209,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$E$1</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2268,7 +2267,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Auswertung Erfolgreich'!$A$2:$A$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2294,7 +2293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Auswertung Erfolgreich'!$E$2:$E$7</c:f>
+              <c:f>'Auswertung Erfolgsrate'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10256,7 +10255,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="8" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="8" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -11048,7 +11047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C027B-19D0-4C79-83C9-9DEB8CF9B634}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -11189,7 +11188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -27058,16 +27057,16 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>206</v>
-      </c>
-      <c r="C3" s="5">
-        <v>300</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3">
+        <v>206</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
         <v>15.133333333333333</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>320.16000000000003</v>
       </c>
     </row>
@@ -27075,16 +27074,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
-        <v>206</v>
-      </c>
-      <c r="C4" s="5">
-        <v>300</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4">
+        <v>206</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>257.12</v>
       </c>
     </row>
@@ -27092,16 +27091,16 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>205.97333333333333</v>
       </c>
-      <c r="C5" s="5">
-        <v>300</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
         <v>21.573333333333334</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>474.09333333333331</v>
       </c>
     </row>
@@ -27109,16 +27108,16 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>206</v>
-      </c>
-      <c r="C6" s="5">
-        <v>300</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6">
+        <v>206</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
         <v>8.0266666666666673</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>199.65333333333334</v>
       </c>
     </row>
@@ -27126,16 +27125,16 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>207</v>
       </c>
-      <c r="C7" s="5">
-        <v>300</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
         <v>7.24</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>118.92</v>
       </c>
     </row>
@@ -27143,16 +27142,16 @@
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>206.19466666666668</v>
       </c>
-      <c r="C8" s="5">
-        <v>300</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
         <v>11.594666666666667</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>273.98933333333332</v>
       </c>
     </row>
